--- a/Teams/Crystal Palace_stats.xlsx
+++ b/Teams/Crystal Palace_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6839,10 +6839,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -7086,7 +7090,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7203,7 +7207,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7320,7 +7324,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7437,7 +7441,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7554,7 +7558,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7671,7 +7675,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7788,7 +7792,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7905,7 +7909,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8022,7 +8026,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8139,7 +8143,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8256,7 +8260,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8373,7 +8377,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8490,7 +8494,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8607,7 +8611,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8724,7 +8728,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8841,7 +8845,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8958,7 +8962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9075,7 +9079,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9192,7 +9196,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9309,7 +9313,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9426,7 +9430,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9543,7 +9547,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9660,7 +9664,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9777,7 +9781,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9894,7 +9898,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10011,7 +10015,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10128,7 +10132,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10245,7 +10249,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22-356</t>
+          <t>22-357</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10308,7 +10312,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-353</t>
+          <t>20-354</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10371,7 +10375,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-182</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10434,7 +10438,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10497,7 +10501,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-165</t>
+          <t>19-166</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10560,7 +10564,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -10623,7 +10627,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-164</t>
+          <t>20-165</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -10686,7 +10690,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30-269</t>
+          <t>30-270</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -10749,7 +10753,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20-053</t>
+          <t>20-054</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -10812,7 +10816,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>35-142</t>
+          <t>35-143</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -11067,9 +11071,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11287,7 +11291,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11369,7 +11373,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11453,7 +11457,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11537,7 +11541,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11621,7 +11625,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11705,7 +11709,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11789,7 +11793,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11873,7 +11877,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11957,7 +11961,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12041,7 +12045,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12125,7 +12129,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12209,7 +12213,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12293,7 +12297,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12377,7 +12381,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12461,7 +12465,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12545,7 +12549,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12627,7 +12631,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12709,7 +12713,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12793,7 +12797,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12877,7 +12881,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12961,7 +12965,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13035,7 +13039,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13119,7 +13123,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13203,7 +13207,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13285,7 +13289,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13359,7 +13363,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13443,7 +13447,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13944,7 +13948,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14046,7 +14050,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14148,7 +14152,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14250,7 +14254,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14352,7 +14356,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14454,7 +14458,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14556,7 +14560,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14658,7 +14662,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14760,7 +14764,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14862,7 +14866,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14964,7 +14968,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15066,7 +15070,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15168,7 +15172,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15270,7 +15274,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -15372,7 +15376,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15474,7 +15478,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15576,7 +15580,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15678,7 +15682,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15780,7 +15784,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15882,7 +15886,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15984,7 +15988,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16086,7 +16090,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16188,7 +16192,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16290,7 +16294,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16392,7 +16396,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16494,7 +16498,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16596,7 +16600,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17074,7 +17078,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17152,7 +17156,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -17230,7 +17234,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -17308,7 +17312,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17386,7 +17390,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17464,7 +17468,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17542,7 +17546,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17620,7 +17624,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17698,7 +17702,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17776,7 +17780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17854,7 +17858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17932,7 +17936,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -18010,7 +18014,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18088,7 +18092,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18166,7 +18170,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -18244,7 +18248,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -18322,7 +18326,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18400,7 +18404,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18478,7 +18482,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18556,7 +18560,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18634,7 +18638,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18712,7 +18716,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18790,7 +18794,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18868,7 +18872,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18946,7 +18950,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -19024,7 +19028,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -19102,7 +19106,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -19514,7 +19518,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19595,7 +19599,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19676,7 +19680,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19757,7 +19761,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19838,7 +19842,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19919,7 +19923,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20000,7 +20004,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20081,7 +20085,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20162,7 +20166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20243,7 +20247,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20324,7 +20328,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20405,7 +20409,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20486,7 +20490,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20567,7 +20571,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20648,7 +20652,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20729,7 +20733,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20810,7 +20814,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20891,7 +20895,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20972,7 +20976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21053,7 +21057,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21134,7 +21138,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21215,7 +21219,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21296,7 +21300,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21377,7 +21381,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21458,7 +21462,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21539,7 +21543,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21620,7 +21624,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -22054,7 +22058,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22135,7 +22139,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22216,7 +22220,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22297,7 +22301,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22378,7 +22382,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22459,7 +22463,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22540,7 +22544,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22621,7 +22625,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22702,7 +22706,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22783,7 +22787,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22864,7 +22868,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22945,7 +22949,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23026,7 +23030,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23107,7 +23111,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23188,7 +23192,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23269,7 +23273,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23350,7 +23354,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23431,7 +23435,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23512,7 +23516,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23593,7 +23597,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23674,7 +23678,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23755,7 +23759,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23836,7 +23840,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23917,7 +23921,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23996,7 +24000,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24077,7 +24081,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24158,7 +24162,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24613,7 +24617,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24708,7 +24712,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -24807,7 +24811,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24906,7 +24910,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25005,7 +25009,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25104,7 +25108,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25203,7 +25207,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25302,7 +25306,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25401,7 +25405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25500,7 +25504,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25599,7 +25603,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -25698,7 +25702,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -25797,7 +25801,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25896,7 +25900,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25995,7 +25999,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26094,7 +26098,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26193,7 +26197,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26292,7 +26296,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26391,7 +26395,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26490,7 +26494,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26585,7 +26589,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26680,7 +26684,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26779,7 +26783,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -26878,7 +26882,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26973,7 +26977,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27068,7 +27072,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27163,7 +27167,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27464,10 +27468,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Playing Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -27711,7 +27719,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28-008</t>
+          <t>28-009</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -27828,7 +27836,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-200</t>
+          <t>25-201</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -27945,7 +27953,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24-250</t>
+          <t>24-251</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28062,7 +28070,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-298</t>
+          <t>28-299</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28179,7 +28187,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-348</t>
+          <t>24-349</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28296,7 +28304,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27-265</t>
+          <t>27-266</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28413,7 +28421,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-264</t>
+          <t>26-265</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28530,7 +28538,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-023</t>
+          <t>27-024</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -28647,7 +28655,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29-337</t>
+          <t>29-338</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28764,7 +28772,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30-146</t>
+          <t>30-147</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -28881,7 +28889,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24-357</t>
+          <t>24-358</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28998,7 +29006,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25-258</t>
+          <t>25-259</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29115,7 +29123,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28-227</t>
+          <t>28-228</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29232,7 +29240,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-291</t>
+          <t>20-292</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29349,7 +29357,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25-294</t>
+          <t>25-295</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29466,7 +29474,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25-071</t>
+          <t>25-072</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -29583,7 +29591,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33-349</t>
+          <t>33-350</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -29700,7 +29708,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -29817,7 +29825,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27-063</t>
+          <t>27-064</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29934,7 +29942,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>28-293</t>
+          <t>28-294</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30051,7 +30059,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21-276</t>
+          <t>21-277</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30168,7 +30176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>32-087</t>
+          <t>32-088</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30285,7 +30293,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>28-089</t>
+          <t>28-090</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30402,7 +30410,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>33-190</t>
+          <t>33-191</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -30519,7 +30527,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-248</t>
+          <t>18-249</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -30636,7 +30644,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19-311</t>
+          <t>19-312</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -30753,7 +30761,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19-173</t>
+          <t>19-174</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -30870,7 +30878,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>22-356</t>
+          <t>22-357</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -30933,7 +30941,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20-353</t>
+          <t>20-354</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -30996,7 +31004,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29-181</t>
+          <t>29-182</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31059,7 +31067,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31122,7 +31130,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>19-165</t>
+          <t>19-166</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -31185,7 +31193,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31-038</t>
+          <t>31-039</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -31248,7 +31256,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20-164</t>
+          <t>20-165</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -31311,7 +31319,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>30-269</t>
+          <t>30-270</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -31374,7 +31382,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20-053</t>
+          <t>20-054</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -31437,7 +31445,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>35-142</t>
+          <t>35-143</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -31692,9 +31700,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Crystal Palace_stats.xlsx
+++ b/Teams/Crystal Palace_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -6038,12 +6038,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22-360</t>
+          <t>22-363</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20-357</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>29-185</t>
+          <t>29-188</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-169</t>
+          <t>19-172</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9474,7 +9474,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-168</t>
+          <t>20-171</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>30-273</t>
+          <t>30-276</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20-057</t>
+          <t>20-060</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>35-146</t>
+          <t>35-149</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -9878,10 +9878,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15808,7 +15808,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15944,7 +15944,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17327,7 +17327,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17469,7 +17469,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17966,7 +17966,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18392,7 +18392,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18747,7 +18747,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19102,7 +19102,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19897,7 +19897,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19968,7 +19968,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20039,7 +20039,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20394,7 +20394,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20607,7 +20607,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20962,7 +20962,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21104,7 +21104,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21244,7 +21244,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22055,7 +22055,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22233,7 +22233,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22322,7 +22322,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22589,7 +22589,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22945,7 +22945,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23123,7 +23123,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23212,7 +23212,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23301,7 +23301,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23390,7 +23390,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23827,7 +23827,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23997,7 +23997,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24356,12 +24356,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28-012</t>
+          <t>28-015</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-204</t>
+          <t>25-207</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24-254</t>
+          <t>24-257</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24906,7 +24906,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-302</t>
+          <t>28-305</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25013,7 +25013,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-352</t>
+          <t>24-355</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25120,7 +25120,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27-269</t>
+          <t>27-272</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25227,7 +25227,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-268</t>
+          <t>26-271</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25334,7 +25334,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-027</t>
+          <t>27-030</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29-341</t>
+          <t>29-344</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25548,7 +25548,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-150</t>
+          <t>30-153</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24-361</t>
+          <t>24-364</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25-262</t>
+          <t>25-265</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25869,7 +25869,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-231</t>
+          <t>28-234</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-295</t>
+          <t>20-298</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25-298</t>
+          <t>25-301</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26190,7 +26190,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>25-075</t>
+          <t>25-078</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>33-353</t>
+          <t>33-356</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26511,7 +26511,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>27-067</t>
+          <t>27-070</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26618,7 +26618,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28-297</t>
+          <t>28-300</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -26725,7 +26725,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21-280</t>
+          <t>21-283</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -26832,7 +26832,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32-091</t>
+          <t>32-094</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26939,7 +26939,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28-093</t>
+          <t>28-096</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27046,7 +27046,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>33-194</t>
+          <t>33-197</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27153,7 +27153,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-252</t>
+          <t>18-255</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>19-315</t>
+          <t>19-318</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-180</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27474,7 +27474,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22-360</t>
+          <t>22-363</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -27527,7 +27527,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20-357</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27580,7 +27580,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>29-185</t>
+          <t>29-188</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -27686,7 +27686,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19-169</t>
+          <t>19-172</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -27739,7 +27739,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>31-042</t>
+          <t>31-045</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -27792,7 +27792,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-168</t>
+          <t>20-171</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>30-273</t>
+          <t>30-276</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -27898,7 +27898,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20-057</t>
+          <t>20-060</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -27951,7 +27951,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>35-146</t>
+          <t>35-149</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -28196,10 +28196,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
